--- a/java/eye025_doc/爱尔眼科数据库设计.xlsx
+++ b/java/eye025_doc/爱尔眼科数据库设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="医院简介" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t xml:space="preserve">表名</t>
   </si>
@@ -79,6 +79,7 @@
         <sz val="10"/>
         <rFont val="文泉驿正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">为 </t>
     </r>
@@ -87,6 +88,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -95,6 +97,7 @@
         <sz val="10"/>
         <rFont val="文泉驿正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示，该文章为发表的简介，为</t>
     </r>
@@ -103,6 +106,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -111,6 +115,7 @@
         <sz val="10"/>
         <rFont val="文泉驿正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">不发表。</t>
     </r>
@@ -146,7 +151,7 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">Varchar(32)</t>
+    <t xml:space="preserve">char(32)</t>
   </si>
   <si>
     <t xml:space="preserve">密码</t>
@@ -160,6 +165,7 @@
         <sz val="10"/>
         <rFont val="文泉驿正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">为</t>
     </r>
@@ -168,6 +174,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -176,6 +183,7 @@
         <sz val="10"/>
         <rFont val="文泉驿正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示超级管理员，为</t>
     </r>
@@ -184,6 +192,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -192,6 +201,7 @@
         <sz val="10"/>
         <rFont val="文泉驿正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示一般管理员</t>
     </r>
@@ -205,6 +215,7 @@
         <sz val="10"/>
         <rFont val="文泉驿正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">部门</t>
     </r>
@@ -213,6 +224,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ID</t>
     </r>
@@ -228,6 +240,9 @@
   </si>
   <si>
     <t xml:space="preserve">科室的介绍图片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediumtext</t>
   </si>
   <si>
     <t xml:space="preserve">科室介绍内容</t>
@@ -317,6 +332,7 @@
       <sz val="10"/>
       <name val="文泉驿正黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -337,11 +353,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -434,7 +452,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.65"/>
@@ -552,7 +570,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -636,7 +654,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
@@ -651,8 +669,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -719,16 +737,16 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
@@ -760,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,46 +805,46 @@
         <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
@@ -841,7 +859,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -855,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,69 +897,69 @@
         <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
